--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A29D963-7D91-4EB6-BBFE-8F05426DD9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AD2BF-4396-4C4D-8AA3-36A1BD3FE9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Антипова Елизавета</t>
   </si>
@@ -116,6 +116,24 @@
   </si>
   <si>
     <t>Тельпис Данила</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>Лаб_2</t>
+  </si>
+  <si>
+    <t>Лаб_3</t>
+  </si>
+  <si>
+    <t>Лаб_4</t>
+  </si>
+  <si>
+    <t>Лаб_5</t>
+  </si>
+  <si>
+    <t>Лаб_6</t>
   </si>
 </sst>
 </file>
@@ -195,11 +213,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,10 +525,10 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -521,38 +539,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-    </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+    </row>
+    <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -564,8 +595,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
+    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -583,16 +613,17 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -608,14 +639,13 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -633,14 +663,13 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -658,14 +687,13 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -683,14 +711,13 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -708,14 +735,13 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -733,16 +759,17 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -758,17 +785,18 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -783,16 +811,17 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -808,14 +837,13 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -833,14 +861,13 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -858,17 +885,20 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -883,14 +913,13 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -908,19 +937,29 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18">
+        <v>5</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -933,14 +972,13 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -958,14 +996,13 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -983,14 +1020,13 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1008,14 +1044,13 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1033,14 +1068,13 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1058,14 +1092,13 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1083,14 +1116,13 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1108,14 +1140,13 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1133,14 +1164,13 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1158,14 +1188,13 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1183,14 +1212,13 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1208,14 +1236,13 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1233,14 +1260,13 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1258,14 +1284,13 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1283,17 +1308,18 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2">
+        <v>5</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1315,7 +1341,6 @@
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1334,13 +1359,12 @@
       <c r="S34" s="2"/>
     </row>
     <row r="35" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="2">
-        <v>5</v>
-      </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02AD2BF-4396-4C4D-8AA3-36A1BD3FE9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514824BD-1972-4AE5-868E-C4CC6845AF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,10 +525,10 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,9 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
       <c r="E5" s="2">
         <v>5</v>
       </c>
@@ -646,7 +648,9 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -766,7 +770,9 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>5</v>
+      </c>
       <c r="E11" s="2">
         <v>5</v>
       </c>
@@ -792,7 +798,9 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
         <v>5</v>
@@ -818,7 +826,9 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
       <c r="E13" s="2">
         <v>5</v>
       </c>
@@ -892,7 +902,9 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
       <c r="E16" s="2">
         <v>5</v>
       </c>
@@ -947,7 +959,9 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
       <c r="E18" s="2">
         <v>5</v>
       </c>
@@ -1220,10 +1234,16 @@
         <v>24</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="E29" s="2">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
+      </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>5</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1315,7 +1335,9 @@
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>5</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2">
         <v>5</v>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{514824BD-1972-4AE5-868E-C4CC6845AF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B86083F-3468-467F-B8AB-B835721B0318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -524,11 +524,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1089,8 +1089,12 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1338,7 +1342,9 @@
       <c r="D33" s="2">
         <v>5</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
       <c r="F33" s="2">
         <v>5</v>
       </c>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B86083F-3468-467F-B8AB-B835721B0318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7CA139-362A-4941-AE10-F656AE9511B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,10 +525,10 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1213,9 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7CA139-362A-4941-AE10-F656AE9511B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF747EF-E64E-4347-B4FD-4641CEE30792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Антипова Елизавета</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>Лаб_6</t>
+  </si>
+  <si>
+    <t>инд 4</t>
+  </si>
+  <si>
+    <t>инд5</t>
+  </si>
+  <si>
+    <t>инд 6</t>
   </si>
 </sst>
 </file>
@@ -159,12 +168,24 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -205,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -218,6 +239,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,7 +555,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -561,7 +588,17 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
     </row>
-    <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>32</v>
@@ -620,10 +657,10 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="6">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
         <v>5</v>
       </c>
       <c r="F5" s="2"/>
@@ -648,7 +685,7 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
@@ -770,10 +807,10 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
         <v>5</v>
       </c>
       <c r="F11" s="2"/>
@@ -798,11 +835,11 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>5</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2">
+      <c r="F12" s="6">
         <v>5</v>
       </c>
       <c r="G12" s="2"/>
@@ -826,10 +863,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2">
-        <v>5</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
         <v>5</v>
       </c>
       <c r="F13" s="2"/>
@@ -902,13 +939,13 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2">
-        <v>5</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
         <v>5</v>
       </c>
       <c r="G16" s="2"/>
@@ -959,19 +996,19 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2">
-        <v>5</v>
-      </c>
-      <c r="F18" s="2">
-        <v>5</v>
-      </c>
-      <c r="G18" s="2">
-        <v>5</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>5</v>
+      </c>
+      <c r="H18" s="7">
         <v>5</v>
       </c>
       <c r="I18" s="2"/>
@@ -1089,10 +1126,10 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="6">
+        <v>5</v>
+      </c>
+      <c r="E23" s="6">
         <v>5</v>
       </c>
       <c r="F23" s="2"/>
@@ -1213,7 +1250,7 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="6">
         <v>5</v>
       </c>
       <c r="E28" s="2"/>
@@ -1240,14 +1277,14 @@
         <v>24</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>5</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="6">
+        <v>5</v>
+      </c>
+      <c r="F29" s="6">
         <v>5</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2">
+      <c r="H29" s="7">
         <v>5</v>
       </c>
       <c r="I29" s="2"/>
@@ -1341,13 +1378,13 @@
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="2">
-        <v>5</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6">
         <v>5</v>
       </c>
       <c r="G33" s="2"/>
@@ -1392,7 +1429,7 @@
       <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="6">
         <v>5</v>
       </c>
       <c r="E35" s="2"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF747EF-E64E-4347-B4FD-4641CEE30792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0FFAA3-41C9-443A-A208-40552AF68C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,14 +237,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,11 +553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -566,27 +568,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
@@ -657,20 +659,21 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
-        <v>5</v>
-      </c>
-      <c r="E5" s="6">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="4">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -685,18 +688,19 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -711,16 +715,17 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -735,16 +740,17 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -759,16 +765,17 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -783,16 +790,17 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -807,20 +815,21 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -835,20 +844,21 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -863,20 +873,21 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -891,16 +902,17 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -915,16 +927,17 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -939,22 +952,23 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -969,16 +983,17 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -993,29 +1008,29 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18" s="6">
-        <v>5</v>
-      </c>
-      <c r="E18" s="6">
-        <v>5</v>
-      </c>
-      <c r="F18" s="6">
-        <v>5</v>
-      </c>
-      <c r="G18" s="7">
-        <v>5</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="C18" s="9">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -1030,16 +1045,17 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -1054,16 +1070,17 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -1078,16 +1095,17 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1102,16 +1120,17 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -1126,20 +1145,21 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="6">
-        <v>5</v>
-      </c>
-      <c r="E23" s="6">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -1154,16 +1174,17 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -1178,16 +1199,17 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -1202,16 +1224,17 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -1226,16 +1249,17 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -1250,18 +1274,19 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -1276,22 +1301,23 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="6">
-        <v>5</v>
-      </c>
-      <c r="F29" s="6">
-        <v>5</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="7">
-        <v>5</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="4">
+        <v>5</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -1306,16 +1332,17 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -1330,16 +1357,17 @@
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -1354,16 +1382,17 @@
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -1378,22 +1407,23 @@
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="6">
-        <v>5</v>
-      </c>
-      <c r="E33" s="6">
-        <v>5</v>
-      </c>
-      <c r="F33" s="6">
-        <v>5</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="4">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -1408,16 +1438,17 @@
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -1429,18 +1460,19 @@
       <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="6">
-        <v>5</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="4">
+        <v>5</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0FFAA3-41C9-443A-A208-40552AF68C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D72D5B-4534-44DB-9093-DF731393CBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,13 +240,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -554,10 +554,10 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -568,27 +568,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" t="s">
@@ -659,21 +659,21 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="4">
         <v>5</v>
       </c>
       <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -688,19 +688,19 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -715,17 +715,17 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -740,17 +740,17 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -765,17 +765,17 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
@@ -790,17 +790,29 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>5</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -815,21 +827,25 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -844,21 +860,23 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -873,21 +891,21 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="4">
         <v>5</v>
       </c>
       <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -902,17 +920,19 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -927,17 +947,21 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6">
+        <v>5</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -952,7 +976,7 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="4">
         <v>5</v>
       </c>
@@ -962,13 +986,13 @@
       <c r="F16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -983,17 +1007,17 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -1008,7 +1032,7 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>5</v>
       </c>
       <c r="D18" s="4">
@@ -1026,11 +1050,11 @@
       <c r="H18" s="4">
         <v>5</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
@@ -1045,17 +1069,17 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -1070,17 +1094,17 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
@@ -1095,17 +1119,17 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -1120,17 +1144,17 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -1145,21 +1169,21 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="4">
         <v>5</v>
       </c>
       <c r="E23" s="4">
         <v>5</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -1174,17 +1198,17 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -1199,17 +1223,23 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6">
+        <v>5</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -1224,17 +1254,17 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -1249,17 +1279,17 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -1274,19 +1304,19 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="4">
         <v>5</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -1301,23 +1331,23 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="4">
         <v>5</v>
       </c>
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="4">
         <v>5</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -1332,17 +1362,17 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -1357,17 +1387,17 @@
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -1382,17 +1412,17 @@
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -1407,7 +1437,7 @@
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="4">
         <v>5</v>
       </c>
@@ -1417,13 +1447,13 @@
       <c r="F33" s="4">
         <v>5</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -1438,17 +1468,17 @@
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -1460,19 +1490,19 @@
       <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="4">
         <v>5</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D72D5B-4534-44DB-9093-DF731393CBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FBC46E-5A98-4D6D-A0E5-854C187495E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -949,7 +949,9 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
       <c r="F15" s="6">
         <v>5</v>
       </c>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FBC46E-5A98-4D6D-A0E5-854C187495E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE801D2-D1E0-4B81-8912-E47DEF97637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,11 +553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -790,22 +790,22 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
         <v>5</v>
       </c>
       <c r="I10" s="6"/>
@@ -834,10 +834,10 @@
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="6">
-        <v>5</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
         <v>5</v>
       </c>
       <c r="H11" s="6"/>
@@ -868,7 +868,7 @@
       <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>5</v>
       </c>
       <c r="H12" s="6"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>5</v>
       </c>
       <c r="F14" s="6"/>
@@ -949,13 +949,13 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6">
-        <v>5</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
         <v>5</v>
       </c>
       <c r="H15" s="6"/>
@@ -1227,13 +1227,13 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <v>5</v>
-      </c>
-      <c r="F25" s="6">
-        <v>5</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="E25" s="4">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
         <v>5</v>
       </c>
       <c r="H25" s="6"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE801D2-D1E0-4B81-8912-E47DEF97637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E20D8-0F99-40F1-9214-E9B7080A573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Антипова Елизавета</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>инд 6</t>
+  </si>
+  <si>
+    <t>Лаб_7</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -623,7 +626,9 @@
       <c r="I3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -688,14 +693,20 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
       <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -871,9 +882,13 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <v>5</v>
+      </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6">
+        <v>5</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -898,7 +913,9 @@
       <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6">
+        <v>5</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1073,7 +1090,9 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1098,8 +1117,12 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="6">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1182,7 +1205,9 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6">
+        <v>5</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -1416,7 +1441,9 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09E20D8-0F99-40F1-9214-E9B7080A573D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30586411-F08D-423D-BCD7-FF9B2D24C8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,9 @@
       <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -699,8 +701,12 @@
       <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
       <c r="G6" s="6">
         <v>5</v>
       </c>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30586411-F08D-423D-BCD7-FF9B2D24C8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C285F-C93D-482C-975A-26A181E36BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,10 +557,10 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="J23" activeCellId="4" sqref="G6 H6 H12 J12 J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -671,7 +671,7 @@
       <c r="E5" s="4">
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>5</v>
       </c>
       <c r="G5" s="6"/>
@@ -695,22 +695,22 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4">
         <v>5</v>
       </c>
       <c r="I6" s="6"/>
@@ -888,11 +888,11 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>5</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>5</v>
       </c>
       <c r="K12" s="6"/>
@@ -919,7 +919,7 @@
       <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>5</v>
       </c>
       <c r="G13" s="6"/>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>5</v>
       </c>
       <c r="F19" s="6"/>
@@ -1123,10 +1123,10 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="6">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" s="6"/>
@@ -1211,7 +1211,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6">
+      <c r="J23" s="4">
         <v>5</v>
       </c>
       <c r="K23" s="6"/>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6">
+      <c r="E32" s="4">
         <v>5</v>
       </c>
       <c r="F32" s="6"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6C285F-C93D-482C-975A-26A181E36BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B3A1C5-D2DA-4F3E-A8DB-781198273D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,10 +557,10 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J23" activeCellId="4" sqref="G6 H6 H12 J12 J23"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -948,8 +948,12 @@
       <c r="E14" s="4">
         <v>5</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1257,7 +1261,9 @@
         <v>20</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="6">
+        <v>5</v>
+      </c>
       <c r="E25" s="4">
         <v>5</v>
       </c>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B3A1C5-D2DA-4F3E-A8DB-781198273D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494F4FB-9C12-4925-9E6D-968373FD9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,10 +557,10 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1456,9 @@
       <c r="E32" s="4">
         <v>5</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="6">
+        <v>5</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4494F4FB-9C12-4925-9E6D-968373FD9810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DBD472-1A70-49D3-917F-4FC2FD3BC7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,10 +557,10 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -948,10 +948,10 @@
       <c r="E14" s="4">
         <v>5</v>
       </c>
-      <c r="F14" s="6">
-        <v>5</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
         <v>5</v>
       </c>
       <c r="H14" s="6"/>
@@ -1261,7 +1261,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>5</v>
       </c>
       <c r="E25" s="4">
@@ -1456,7 +1456,7 @@
       <c r="E32" s="4">
         <v>5</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="4">
         <v>5</v>
       </c>
       <c r="G32" s="6"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DBD472-1A70-49D3-917F-4FC2FD3BC7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B82A0-ED0E-4612-BCA7-2C5024EF9739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -784,8 +784,12 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -881,7 +885,9 @@
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6">
+        <v>5</v>
+      </c>
       <c r="F12" s="4">
         <v>5</v>
       </c>
@@ -1180,8 +1186,12 @@
         <v>17</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>5</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1428,7 +1438,9 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6">
+        <v>5</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B82A0-ED0E-4612-BCA7-2C5024EF9739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F0CAB-FC96-4C31-B9A8-C24521FFB5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Антипова Елизавета</t>
   </si>
@@ -112,30 +112,12 @@
     <t>Цыбин Тимофей</t>
   </si>
   <si>
-    <t>Лаб_1</t>
-  </si>
-  <si>
     <t>Тельпис Данила</t>
   </si>
   <si>
     <t>Тест</t>
   </si>
   <si>
-    <t>Лаб_2</t>
-  </si>
-  <si>
-    <t>Лаб_3</t>
-  </si>
-  <si>
-    <t>Лаб_4</t>
-  </si>
-  <si>
-    <t>Лаб_5</t>
-  </si>
-  <si>
-    <t>Лаб_6</t>
-  </si>
-  <si>
     <t>инд 4</t>
   </si>
   <si>
@@ -145,22 +127,43 @@
     <t>инд 6</t>
   </si>
   <si>
-    <t>Лаб_7</t>
+    <t>Л_1</t>
+  </si>
+  <si>
+    <t>Л_2</t>
+  </si>
+  <si>
+    <t>Л_3</t>
+  </si>
+  <si>
+    <t>Л_4</t>
+  </si>
+  <si>
+    <t>Л_5</t>
+  </si>
+  <si>
+    <t>Л_6</t>
+  </si>
+  <si>
+    <t>Л_7</t>
+  </si>
+  <si>
+    <t>Л_8</t>
+  </si>
+  <si>
+    <t>Л_9</t>
+  </si>
+  <si>
+    <t>Тест_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -229,15 +232,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,8 +251,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -554,183 +555,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="19" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" customWidth="1"/>
+    <col min="4" max="12" width="3.1796875" customWidth="1"/>
+    <col min="13" max="19" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-    </row>
-    <row r="2" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" t="s">
+    <row r="1" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="4">
         <v>5</v>
       </c>
       <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5</v>
+      </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
-        <v>5</v>
-      </c>
-      <c r="H6" s="4">
-        <v>5</v>
-      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -743,80 +749,87 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4">
         <v>5</v>
       </c>
@@ -834,58 +847,60 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
       <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="6"/>
+      <c r="E12" s="4">
         <v>5</v>
       </c>
       <c r="F12" s="4">
@@ -894,91 +909,90 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="4">
-        <v>5</v>
-      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="4">
-        <v>5</v>
-      </c>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="2"/>
+      <c r="M12" s="6">
+        <v>5</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>5</v>
-      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="4">
         <v>5</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6"/>
       <c r="F14" s="4">
         <v>5</v>
       </c>
       <c r="G14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="6">
+        <v>5</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
@@ -997,30 +1011,23 @@
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4">
-        <v>5</v>
-      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1028,7 +1035,6 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1037,23 +1043,34 @@
     </row>
     <row r="17" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1062,27 +1079,21 @@
     </row>
     <row r="18" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5</v>
-      </c>
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5</v>
-      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="4">
         <v>5</v>
       </c>
-      <c r="G18" s="4">
-        <v>5</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="6">
+        <v>5</v>
+      </c>
+      <c r="H18" s="6">
         <v>5</v>
       </c>
       <c r="I18" s="6"/>
@@ -1090,7 +1101,6 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1099,25 +1109,26 @@
     </row>
     <row r="19" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1126,19 +1137,15 @@
     </row>
     <row r="20" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="4">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4">
-        <v>5</v>
-      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1146,7 +1153,6 @@
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1155,23 +1161,28 @@
     </row>
     <row r="21" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="2"/>
+      <c r="M21" s="6">
+        <v>5</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1180,27 +1191,30 @@
     </row>
     <row r="22" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6">
-        <v>5</v>
-      </c>
-      <c r="E22" s="6">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="2"/>
+      <c r="M22" s="6">
+        <v>5</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -1209,29 +1223,22 @@
     </row>
     <row r="23" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4">
-        <v>5</v>
-      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="4">
-        <v>5</v>
-      </c>
+      <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1240,23 +1247,30 @@
     </row>
     <row r="24" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>5</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -1265,31 +1279,22 @@
     </row>
     <row r="25" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="4">
-        <v>5</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5</v>
-      </c>
-      <c r="F25" s="4">
-        <v>5</v>
-      </c>
-      <c r="G25" s="4">
-        <v>5</v>
-      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -1298,10 +1303,10 @@
     </row>
     <row r="26" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
@@ -1314,7 +1319,6 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -1323,14 +1327,16 @@
     </row>
     <row r="27" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -1339,7 +1345,6 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -1348,25 +1353,28 @@
     </row>
     <row r="28" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="4">
-        <v>5</v>
-      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="4">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4">
+        <v>5</v>
+      </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="4">
+        <v>5</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -1375,29 +1383,22 @@
     </row>
     <row r="29" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="4">
-        <v>5</v>
-      </c>
-      <c r="F29" s="4">
-        <v>5</v>
-      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="4">
-        <v>5</v>
-      </c>
+      <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -1406,15 +1407,17 @@
     </row>
     <row r="30" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="6">
+        <v>5</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -1422,7 +1425,6 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -1431,25 +1433,26 @@
     </row>
     <row r="31" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6">
-        <v>5</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -1458,10 +1461,10 @@
     </row>
     <row r="32" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -1471,14 +1474,15 @@
       <c r="F32" s="4">
         <v>5</v>
       </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="4">
+        <v>5</v>
+      </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -1487,21 +1491,15 @@
     </row>
     <row r="33" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="4">
-        <v>5</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5</v>
-      </c>
-      <c r="F33" s="4">
-        <v>5</v>
-      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -1509,7 +1507,6 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -1517,15 +1514,14 @@
       <c r="S33" s="2"/>
     </row>
     <row r="34" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="B34" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="E34" s="4">
+        <v>5</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1534,43 +1530,15 @@
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="4">
-        <v>5</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:19" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="C1:W1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74F0CAB-FC96-4C31-B9A8-C24521FFB5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2993FEC-42B0-4462-A98D-46F748FB2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Антипова Елизавета</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Тест_4</t>
+  </si>
+  <si>
+    <t>Л_10</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -617,6 +620,9 @@
       </c>
       <c r="M2" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -912,7 +918,9 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6">
+        <v>5</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6">
         <v>5</v>
@@ -964,7 +972,9 @@
       <c r="D14" s="6">
         <v>5</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6">
+        <v>5</v>
+      </c>
       <c r="F14" s="4">
         <v>5</v>
       </c>
@@ -976,7 +986,9 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6">
+        <v>5</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6">
         <v>5</v>
@@ -1129,6 +1141,9 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
+      <c r="N19">
+        <v>5</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2993FEC-42B0-4462-A98D-46F748FB2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F3739C-A6B6-4B98-A39F-374A862FBC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,7 +177,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -254,6 +260,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -560,11 +567,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -771,13 +778,13 @@
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6">
-        <v>5</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
         <v>5</v>
       </c>
       <c r="I8" s="6"/>
@@ -866,14 +873,14 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>5</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4">
         <v>5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>5</v>
       </c>
       <c r="G11" s="4">
@@ -918,11 +925,11 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <v>5</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <v>5</v>
       </c>
       <c r="O12" s="2"/>
@@ -972,7 +979,7 @@
       <c r="D14" s="6">
         <v>5</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>5</v>
       </c>
       <c r="F14" s="4">
@@ -986,11 +993,11 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>5</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6">
+      <c r="M14" s="4">
         <v>5</v>
       </c>
       <c r="O14" s="2"/>
@@ -1102,10 +1109,10 @@
       <c r="F18" s="4">
         <v>5</v>
       </c>
-      <c r="G18" s="6">
-        <v>5</v>
-      </c>
-      <c r="H18" s="6">
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
+      <c r="H18" s="4">
         <v>5</v>
       </c>
       <c r="I18" s="6"/>
@@ -1141,7 +1148,7 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19">
+      <c r="N19" s="7">
         <v>5</v>
       </c>
       <c r="O19" s="2"/>
@@ -1183,10 +1190,10 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6">
-        <v>5</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
         <v>5</v>
       </c>
       <c r="G21" s="6"/>
@@ -1195,7 +1202,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6">
+      <c r="M21" s="4">
         <v>5</v>
       </c>
       <c r="O21" s="2"/>
@@ -1227,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="6">
+      <c r="M22" s="4">
         <v>5</v>
       </c>
       <c r="O22" s="2"/>
@@ -1430,7 +1437,7 @@
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6">
+      <c r="F30" s="4">
         <v>5</v>
       </c>
       <c r="G30" s="6"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-121\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F3739C-A6B6-4B98-A39F-374A862FBC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E8869C-0881-465A-B49D-8548D65A3104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,10 +568,10 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -675,7 +675,9 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="K4" s="6">
+        <v>5</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="O4" s="2"/>
@@ -857,7 +859,9 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6">
+        <v>5</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="O10" s="2"/>
@@ -898,6 +902,9 @@
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
+      <c r="N11">
+        <v>5</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -957,9 +964,13 @@
       <c r="H13" s="4">
         <v>5</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>5</v>
+      </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6">
+        <v>5</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="O13" s="2"/>
@@ -991,7 +1002,9 @@
       <c r="H14" s="4">
         <v>5</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6">
+        <v>5</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="4">
         <v>5</v>
@@ -1025,7 +1038,9 @@
         <v>5</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6">
+        <v>5</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -1115,9 +1130,13 @@
       <c r="H18" s="4">
         <v>5</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="K18" s="6">
+        <v>5</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="O18" s="2"/>
@@ -1143,7 +1162,9 @@
         <v>5</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6">
+        <v>5</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1167,10 +1188,18 @@
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6">
+        <v>5</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E8869C-0881-465A-B49D-8548D65A3104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8C31C-D74E-450A-A0F9-405E9CA3774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,10 +568,10 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -967,7 +967,9 @@
       <c r="I13" s="6">
         <v>5</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6">
+        <v>5</v>
+      </c>
       <c r="K13" s="6">
         <v>5</v>
       </c>
@@ -1133,7 +1135,9 @@
       <c r="I18" s="6">
         <v>5</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6">
+        <v>5</v>
+      </c>
       <c r="K18" s="6">
         <v>5</v>
       </c>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B8C31C-D74E-450A-A0F9-405E9CA3774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6BB9E1-F94C-4265-ADD0-072410823140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,7 +1423,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="4">
+      <c r="I28" s="6">
         <v>5</v>
       </c>
       <c r="J28" s="6"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6BB9E1-F94C-4265-ADD0-072410823140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C8652-2EDD-4576-8443-D265FB322472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Антипова Елизавета</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Тельпис Данила</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
     <t>инд 4</t>
   </si>
   <si>
@@ -158,6 +155,21 @@
   </si>
   <si>
     <t>Л_10</t>
+  </si>
+  <si>
+    <t>Л_11</t>
+  </si>
+  <si>
+    <t>Л_12</t>
+  </si>
+  <si>
+    <t>Т_1</t>
+  </si>
+  <si>
+    <t>Т_2</t>
+  </si>
+  <si>
+    <t>Т_3</t>
   </si>
 </sst>
 </file>
@@ -241,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -568,78 +583,84 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="3" width="5.1796875" customWidth="1"/>
-    <col min="4" max="12" width="3.1796875" customWidth="1"/>
+    <col min="3" max="5" width="4" customWidth="1"/>
+    <col min="6" max="12" width="3.1796875" customWidth="1"/>
     <col min="13" max="19" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -648,8 +669,8 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -662,28 +683,49 @@
         <v>0</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
         <v>5</v>
       </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5</v>
+      </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6">
         <v>5</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="L4" s="6">
+        <v>5</v>
+      </c>
+      <c r="M4" s="6">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6">
+        <v>5</v>
+      </c>
+      <c r="O4" s="6">
+        <v>5</v>
+      </c>
+      <c r="P4" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5</v>
+      </c>
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -696,13 +738,7 @@
       <c r="C5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
+      <c r="F5" s="6"/>
       <c r="G5" s="4">
         <v>5</v>
       </c>
@@ -712,12 +748,27 @@
       <c r="I5" s="4">
         <v>5</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="J5" s="4">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="6">
+        <v>5</v>
+      </c>
+      <c r="M5" s="6">
+        <v>5</v>
+      </c>
+      <c r="N5" s="6">
+        <v>5</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5</v>
+      </c>
+      <c r="P5" s="9">
+        <v>5</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -730,8 +781,6 @@
         <v>2</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -740,8 +789,8 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -754,8 +803,6 @@
         <v>3</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -764,8 +811,8 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -778,24 +825,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
-      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -810,13 +855,7 @@
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
+      <c r="F9" s="6"/>
       <c r="G9" s="4">
         <v>5</v>
       </c>
@@ -826,12 +865,27 @@
       <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6">
+        <v>5</v>
+      </c>
+      <c r="O9" s="6">
+        <v>5</v>
+      </c>
+      <c r="P9" s="9">
+        <v>5</v>
+      </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -844,29 +898,33 @@
         <v>6</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="4">
         <v>5</v>
       </c>
       <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6">
-        <v>5</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
+        <v>5</v>
+      </c>
+      <c r="M10" s="6">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6">
+        <v>5</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="Q10" s="2">
+        <v>5</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
@@ -880,13 +938,7 @@
       <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="4">
         <v>5</v>
       </c>
@@ -896,17 +948,25 @@
       <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
       <c r="K11" s="4">
         <v>5</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="L11" s="6">
+        <v>5</v>
+      </c>
+      <c r="M11" s="4">
+        <v>5</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -919,28 +979,26 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="4">
+        <v>5</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="4">
-        <v>5</v>
-      </c>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="4">
         <v>5</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="4">
+        <v>5</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -953,32 +1011,41 @@
         <v>9</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="4">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4">
-        <v>5</v>
-      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="4">
         <v>5</v>
       </c>
-      <c r="I13" s="6">
-        <v>5</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="4">
+        <v>5</v>
+      </c>
+      <c r="J13" s="4">
         <v>5</v>
       </c>
       <c r="K13" s="6">
         <v>5</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="L13" s="6">
+        <v>5</v>
+      </c>
+      <c r="M13" s="6">
+        <v>5</v>
+      </c>
+      <c r="N13" s="6">
+        <v>5</v>
+      </c>
+      <c r="O13" s="6">
+        <v>5</v>
+      </c>
+      <c r="P13" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>5</v>
+      </c>
+      <c r="R13" s="2">
+        <v>5</v>
+      </c>
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -989,13 +1056,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <v>5</v>
       </c>
       <c r="G14" s="4">
@@ -1004,19 +1065,23 @@
       <c r="H14" s="4">
         <v>5</v>
       </c>
-      <c r="I14" s="6">
-        <v>5</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="4">
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="6">
         <v>5</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="4">
         <v>5</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="4">
+        <v>5</v>
+      </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1029,26 +1094,32 @@
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
         <v>5</v>
       </c>
       <c r="G15" s="4">
         <v>5</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6">
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
+      <c r="I15" s="4">
         <v>5</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6">
+        <v>5</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1061,8 +1132,6 @@
         <v>12</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -1071,8 +1140,8 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1087,13 +1156,7 @@
       <c r="C17" s="7">
         <v>5</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="4">
         <v>5</v>
       </c>
@@ -1103,13 +1166,30 @@
       <c r="I17" s="4">
         <v>5</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="6">
+        <v>5</v>
+      </c>
+      <c r="M17" s="6">
+        <v>5</v>
+      </c>
+      <c r="N17" s="6">
+        <v>5</v>
+      </c>
+      <c r="O17" s="6">
+        <v>5</v>
+      </c>
+      <c r="P17" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>5</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
@@ -1121,30 +1201,28 @@
         <v>14</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="4">
-        <v>5</v>
-      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="4">
         <v>5</v>
       </c>
-      <c r="I18" s="6">
-        <v>5</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="I18" s="4">
+        <v>5</v>
+      </c>
+      <c r="J18" s="4">
         <v>5</v>
       </c>
       <c r="K18" s="6">
         <v>5</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="L18" s="6">
+        <v>5</v>
+      </c>
+      <c r="M18" s="6">
+        <v>5</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1157,27 +1235,27 @@
         <v>15</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="4">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4">
-        <v>5</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6">
-        <v>5</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
+      <c r="J19" s="6">
+        <v>5</v>
+      </c>
+      <c r="K19" s="6">
+        <v>5</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="7">
-        <v>5</v>
-      </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7">
+        <v>5</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1190,26 +1268,28 @@
         <v>16</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
       <c r="F20" s="6">
         <v>5</v>
       </c>
-      <c r="G20" s="6">
-        <v>5</v>
-      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6">
         <v>5</v>
       </c>
       <c r="I20" s="6">
         <v>5</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="J20" s="6">
+        <v>5</v>
+      </c>
+      <c r="K20" s="6">
+        <v>5</v>
+      </c>
+      <c r="L20" s="6">
+        <v>5</v>
+      </c>
       <c r="M20" s="6"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1222,24 +1302,22 @@
         <v>17</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4">
-        <v>5</v>
-      </c>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="4">
-        <v>5</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="4">
+        <v>5</v>
+      </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1252,26 +1330,24 @@
         <v>18</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4">
-        <v>5</v>
-      </c>
-      <c r="F22" s="4">
-        <v>5</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="4">
-        <v>5</v>
-      </c>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="4">
         <v>5</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="4">
+        <v>5</v>
+      </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1284,8 +1360,6 @@
         <v>19</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -1294,8 +1368,8 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1308,26 +1382,33 @@
         <v>20</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="4">
-        <v>5</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5</v>
-      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="4">
         <v>5</v>
       </c>
       <c r="H24" s="4">
         <v>5</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="I24" s="4">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5</v>
+      </c>
+      <c r="K24" s="6">
+        <v>5</v>
+      </c>
+      <c r="L24" s="6">
+        <v>5</v>
+      </c>
+      <c r="M24" s="6">
+        <v>5</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="9">
+        <v>5</v>
+      </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1340,8 +1421,6 @@
         <v>21</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -1350,8 +1429,8 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1364,18 +1443,18 @@
         <v>22</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="6">
+        <v>5</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1388,20 +1467,18 @@
         <v>23</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -1414,26 +1491,33 @@
         <v>24</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="4">
-        <v>5</v>
-      </c>
-      <c r="G28" s="4">
-        <v>5</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="4">
+        <v>5</v>
+      </c>
+      <c r="I28" s="4">
         <v>5</v>
       </c>
       <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="K28" s="6">
+        <v>5</v>
+      </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="M28" s="6">
+        <v>5</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6">
+        <v>5</v>
+      </c>
+      <c r="P28" s="9">
+        <v>5</v>
+      </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2">
+        <v>5</v>
+      </c>
       <c r="S28" s="2"/>
     </row>
     <row r="29" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1444,8 +1528,6 @@
         <v>25</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
@@ -1454,8 +1536,8 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1468,20 +1550,18 @@
         <v>26</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="4">
-        <v>5</v>
-      </c>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="4">
+        <v>5</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -1494,22 +1574,20 @@
         <v>27</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="4">
-        <v>5</v>
-      </c>
-      <c r="G31" s="4">
-        <v>5</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="4">
+        <v>5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>5</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -1522,26 +1600,28 @@
         <v>28</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="4">
-        <v>5</v>
-      </c>
-      <c r="F32" s="4">
-        <v>5</v>
-      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="4">
         <v>5</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="H32" s="4">
+        <v>5</v>
+      </c>
+      <c r="I32" s="4">
+        <v>5</v>
+      </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
+      <c r="K32" s="6">
+        <v>5</v>
+      </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="R32" s="2">
+        <v>5</v>
+      </c>
       <c r="S32" s="2"/>
     </row>
     <row r="33" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1552,8 +1632,6 @@
         <v>29</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -1562,8 +1640,8 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -1573,20 +1651,18 @@
         <v>30</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="4">
-        <v>5</v>
-      </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="4">
+        <v>5</v>
+      </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065C8652-2EDD-4576-8443-D265FB322472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EF9DB3-055B-49FC-B4CD-6CEB8ED3AFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,10 +583,10 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -989,7 +989,9 @@
       <c r="I12" s="4">
         <v>5</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6">
+        <v>5</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="4">
@@ -1137,8 +1139,12 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="6">
+        <v>5</v>
+      </c>
+      <c r="L16" s="6">
+        <v>5</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -1249,7 +1255,9 @@
       <c r="K19" s="6">
         <v>5</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6">
+        <v>5</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -1445,13 +1453,21 @@
       <c r="C26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="H26" s="6">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6">
+        <v>5</v>
+      </c>
       <c r="J26" s="6">
         <v>5</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="K26" s="6">
+        <v>5</v>
+      </c>
+      <c r="L26" s="6">
+        <v>5</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -1582,9 +1598,15 @@
       <c r="I31" s="4">
         <v>5</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="J31" s="6">
+        <v>5</v>
+      </c>
+      <c r="K31" s="6">
+        <v>5</v>
+      </c>
+      <c r="L31" s="6">
+        <v>5</v>
+      </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
@@ -1614,7 +1636,9 @@
       <c r="K32" s="6">
         <v>5</v>
       </c>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6">
+        <v>5</v>
+      </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
@@ -1633,12 +1657,24 @@
       </c>
       <c r="C33" s="5"/>
       <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="G33" s="6">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6">
+        <v>5</v>
+      </c>
+      <c r="I33" s="6">
+        <v>5</v>
+      </c>
+      <c r="J33" s="6">
+        <v>5</v>
+      </c>
+      <c r="K33" s="6">
+        <v>5</v>
+      </c>
+      <c r="L33" s="6">
+        <v>5</v>
+      </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EF9DB3-055B-49FC-B4CD-6CEB8ED3AFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC8390-9D49-4DA4-8EF9-7CFE77B53AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,10 +583,10 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
+      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1145,9 @@
       <c r="L16" s="6">
         <v>5</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6">
+        <v>5</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="Q16" s="2"/>
@@ -1258,7 +1260,9 @@
       <c r="L19" s="6">
         <v>5</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6">
+        <v>5</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="7">
@@ -1295,7 +1299,9 @@
       <c r="L20" s="6">
         <v>5</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="6">
+        <v>5</v>
+      </c>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="Q20" s="2"/>
@@ -1468,7 +1474,9 @@
       <c r="L26" s="6">
         <v>5</v>
       </c>
-      <c r="M26" s="6"/>
+      <c r="M26" s="6">
+        <v>5</v>
+      </c>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="Q26" s="2"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC8390-9D49-4DA4-8EF9-7CFE77B53AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818268D3-631D-4855-8A6E-41B0F14E49B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Антипова Елизавета</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Т_3</t>
+  </si>
+  <si>
+    <t>Л_13</t>
   </si>
 </sst>
 </file>
@@ -583,10 +586,10 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -658,7 +661,9 @@
       <c r="R2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
@@ -682,7 +687,9 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
       <c r="D4">
         <v>5</v>
       </c>
@@ -726,7 +733,9 @@
       <c r="R4" s="2">
         <v>5</v>
       </c>
-      <c r="S4" s="2"/>
+      <c r="S4" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -886,9 +895,15 @@
       <c r="P9" s="9">
         <v>5</v>
       </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
+      <c r="Q9" s="2">
+        <v>5</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -921,12 +936,18 @@
       <c r="N10" s="6">
         <v>5</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6">
+        <v>5</v>
+      </c>
       <c r="Q10" s="2">
         <v>5</v>
       </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="R10" s="2">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -967,9 +988,13 @@
       <c r="P11">
         <v>5</v>
       </c>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="2">
+        <v>5</v>
+      </c>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
+      <c r="S11" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1001,9 +1026,13 @@
       <c r="O12" s="4">
         <v>5</v>
       </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2">
+        <v>5</v>
+      </c>
       <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1095,7 +1124,9 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
       <c r="D15">
         <v>5</v>
       </c>
@@ -1124,7 +1155,9 @@
       <c r="O15" s="6"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
+      <c r="S15" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1148,10 +1181,21 @@
       <c r="M16" s="6">
         <v>5</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="N16" s="6">
+        <v>5</v>
+      </c>
+      <c r="O16" s="6">
+        <v>5</v>
+      </c>
+      <c r="P16" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>5</v>
+      </c>
+      <c r="R16" s="2">
+        <v>5</v>
+      </c>
       <c r="S16" s="2"/>
     </row>
     <row r="17" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1198,8 +1242,12 @@
       <c r="Q17" s="2">
         <v>5</v>
       </c>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
+      <c r="R17" s="2">
+        <v>5</v>
+      </c>
+      <c r="S17" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1263,14 +1311,24 @@
       <c r="M19" s="6">
         <v>5</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="N19" s="6">
+        <v>5</v>
+      </c>
+      <c r="O19" s="6">
+        <v>5</v>
+      </c>
       <c r="P19" s="7">
         <v>5</v>
       </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="Q19" s="2">
+        <v>5</v>
+      </c>
+      <c r="R19" s="2">
+        <v>5</v>
+      </c>
+      <c r="S19" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1302,11 +1360,22 @@
       <c r="M20" s="6">
         <v>5</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="Q20" s="2"/>
+      <c r="N20" s="6">
+        <v>5</v>
+      </c>
+      <c r="O20" s="6">
+        <v>5</v>
+      </c>
+      <c r="P20" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>5</v>
+      </c>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="S20" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1477,11 +1546,20 @@
       <c r="M26" s="6">
         <v>5</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="N26" s="6">
+        <v>5</v>
+      </c>
+      <c r="O26" s="6">
+        <v>5</v>
+      </c>
+      <c r="P26" s="9">
+        <v>5</v>
+      </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
+      <c r="S26" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1615,12 +1693,16 @@
       <c r="L31" s="6">
         <v>5</v>
       </c>
-      <c r="M31" s="6"/>
+      <c r="M31" s="6">
+        <v>5</v>
+      </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
+      <c r="S31" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1648,13 +1730,19 @@
         <v>5</v>
       </c>
       <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="N32" s="6">
+        <v>5</v>
+      </c>
       <c r="O32" s="6"/>
-      <c r="Q32" s="2"/>
+      <c r="Q32" s="2">
+        <v>5</v>
+      </c>
       <c r="R32" s="2">
         <v>5</v>
       </c>
-      <c r="S32" s="2"/>
+      <c r="S32" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1683,12 +1771,27 @@
       <c r="L33" s="6">
         <v>5</v>
       </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
+      <c r="M33" s="6">
+        <v>5</v>
+      </c>
+      <c r="N33" s="6">
+        <v>5</v>
+      </c>
+      <c r="O33" s="6">
+        <v>5</v>
+      </c>
+      <c r="P33" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>5</v>
+      </c>
+      <c r="R33" s="2">
+        <v>5</v>
+      </c>
+      <c r="S33" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818268D3-631D-4855-8A6E-41B0F14E49B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58BE11-3D7D-42E4-93E8-821BB9DB6DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,19 @@
     <sheet name="Zorina O. A." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -583,25 +596,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="41.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" customWidth="1"/>
     <col min="3" max="5" width="4" customWidth="1"/>
     <col min="6" max="12" width="3.1796875" customWidth="1"/>
     <col min="13" max="19" width="5.1796875" customWidth="1"/>
+    <col min="20" max="20" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
         <v>31</v>
       </c>
@@ -612,7 +626,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>47</v>
       </c>
@@ -665,7 +679,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -680,7 +694,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -736,8 +750,12 @@
       <c r="S4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U4">
+        <f>SUM(C4:S4)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -781,8 +799,12 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <f t="shared" ref="U5:U34" si="0">SUM(C5:S5)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -803,8 +825,12 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -825,8 +851,12 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -853,8 +883,12 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -904,8 +938,12 @@
       <c r="S9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -948,8 +986,12 @@
       <c r="S10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -995,8 +1037,12 @@
       <c r="S11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1033,8 +1079,12 @@
       <c r="S12" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1078,8 +1128,12 @@
         <v>5</v>
       </c>
       <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1116,8 +1170,12 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1158,8 +1216,12 @@
       <c r="S15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1197,8 +1259,12 @@
         <v>5</v>
       </c>
       <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1248,8 +1314,12 @@
       <c r="S17" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1282,8 +1352,12 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1329,8 +1403,12 @@
       <c r="S19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1376,8 +1454,12 @@
       <c r="S20" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1404,8 +1486,12 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1434,8 +1520,12 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1456,8 +1546,12 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1495,8 +1589,12 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1517,8 +1615,12 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1560,8 +1662,12 @@
       <c r="S26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1584,8 +1690,12 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1621,8 +1731,12 @@
         <v>5</v>
       </c>
       <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1643,8 +1757,12 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1667,8 +1785,12 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1703,8 +1825,12 @@
       <c r="S31" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1743,8 +1869,12 @@
       <c r="S32" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1792,8 +1922,12 @@
       <c r="S33" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
@@ -1813,10 +1947,26 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="U4:U34">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF58BE11-3D7D-42E4-93E8-821BB9DB6DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30FF3D6-DC71-46B9-BE6C-03DE2AB35C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>Антипова Елизавета</t>
   </si>
@@ -186,13 +186,37 @@
   </si>
   <si>
     <t>Л_13</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Й</t>
+  </si>
+  <si>
+    <t>До 15 50 +ПРАКТИЧЕСКОЕ ЗАДАНИЕ</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>билет 12</t>
+  </si>
+  <si>
+    <t>билет 27</t>
+  </si>
+  <si>
+    <t>н</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,8 +228,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +264,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -290,6 +339,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -596,13 +658,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -615,7 +677,7 @@
     <col min="20" max="20" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G1" t="s">
         <v>31</v>
       </c>
@@ -626,7 +688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>47</v>
       </c>
@@ -679,7 +741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -694,7 +756,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -754,8 +816,11 @@
         <f>SUM(C4:S4)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -803,8 +868,11 @@
         <f t="shared" ref="U5:U34" si="0">SUM(C5:S5)</f>
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -814,23 +882,54 @@
       <c r="C6" s="5"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="H6" s="10">
+        <v>5</v>
+      </c>
+      <c r="I6" s="10">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10">
+        <v>5</v>
+      </c>
+      <c r="K6" s="10">
+        <v>5</v>
+      </c>
+      <c r="L6" s="10">
+        <v>5</v>
+      </c>
+      <c r="M6" s="10">
+        <v>5</v>
+      </c>
+      <c r="N6" s="10">
+        <v>5</v>
+      </c>
+      <c r="O6" s="10">
+        <v>5</v>
+      </c>
+      <c r="P6" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>5</v>
+      </c>
+      <c r="R6" s="10">
+        <v>5</v>
+      </c>
+      <c r="S6" s="10">
+        <v>5</v>
+      </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -855,8 +954,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -887,8 +989,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -942,8 +1050,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -990,8 +1101,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1041,8 +1155,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1083,8 +1200,11 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1132,8 +1252,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1174,8 +1297,14 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W14" t="s">
+        <v>52</v>
+      </c>
+      <c r="X14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1220,8 +1349,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1263,8 +1395,14 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W16" t="s">
+        <v>52</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1318,8 +1456,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1347,17 +1488,36 @@
       <c r="M18" s="6">
         <v>5</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="N18" s="13">
+        <v>5</v>
+      </c>
+      <c r="O18" s="13">
+        <v>5</v>
+      </c>
+      <c r="P18" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>5</v>
+      </c>
+      <c r="R18" s="13">
+        <v>5</v>
+      </c>
+      <c r="S18" s="13">
+        <v>5</v>
+      </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="V18" t="s">
+        <v>51</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1407,8 +1567,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1458,8 +1621,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1490,8 +1656,11 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1517,15 +1686,30 @@
       <c r="O22" s="4">
         <v>5</v>
       </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
+      <c r="P22" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>5</v>
+      </c>
+      <c r="R22" s="16">
+        <v>5</v>
+      </c>
+      <c r="S22" s="16">
+        <v>5</v>
+      </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="W22" t="s">
+        <v>54</v>
+      </c>
+      <c r="X22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1550,8 +1734,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1593,8 +1780,14 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W24" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1619,8 +1812,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1666,8 +1862,11 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1694,8 +1893,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W27" t="s">
+        <v>52</v>
+      </c>
+      <c r="X27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1735,8 +1940,11 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1761,8 +1969,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1789,8 +2000,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1829,8 +2043,14 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W31" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1873,8 +2093,11 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1926,8 +2149,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
@@ -1951,8 +2177,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="V34" t="s">
+        <v>58</v>
+      </c>
+      <c r="W34" t="s">
+        <v>58</v>
+      </c>
+      <c r="X34" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="U4:U34">
@@ -1968,5 +2206,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30FF3D6-DC71-46B9-BE6C-03DE2AB35C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B13054-A9D0-40A4-9D5F-99ADA1B61033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>Антипова Елизавета</t>
   </si>
@@ -126,15 +126,6 @@
   </si>
   <si>
     <t>Тельпис Данила</t>
-  </si>
-  <si>
-    <t>инд 4</t>
-  </si>
-  <si>
-    <t>инд5</t>
-  </si>
-  <si>
-    <t>инд 6</t>
   </si>
   <si>
     <t>Л_1</t>
@@ -661,10 +652,10 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -677,71 +668,113 @@
     <col min="20" max="20" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G1" t="s">
+    <row r="1" spans="1:25" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -756,7 +789,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -817,10 +850,13 @@
         <v>80</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -869,10 +905,10 @@
         <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -923,13 +959,13 @@
         <v>60</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -955,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -990,13 +1026,13 @@
         <v>15</v>
       </c>
       <c r="W8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1051,10 +1087,10 @@
         <v>70</v>
       </c>
       <c r="V9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1102,10 +1138,13 @@
         <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1156,10 +1195,13 @@
         <v>60</v>
       </c>
       <c r="V11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1204,7 +1246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1253,10 +1295,13 @@
         <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1298,13 +1343,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X14">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1353,7 +1398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1396,13 +1441,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1457,10 +1502,10 @@
         <v>70</v>
       </c>
       <c r="V17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1511,13 +1556,13 @@
         <v>60</v>
       </c>
       <c r="V18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1568,10 +1613,10 @@
         <v>60</v>
       </c>
       <c r="V19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1622,10 +1667,13 @@
         <v>60</v>
       </c>
       <c r="V20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1657,10 +1705,10 @@
         <v>15</v>
       </c>
       <c r="X21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1703,13 +1751,13 @@
         <v>40</v>
       </c>
       <c r="W22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X22">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1738,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1781,13 +1829,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X24">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1816,7 +1864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1863,10 +1911,10 @@
         <v>50</v>
       </c>
       <c r="V26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1894,13 +1942,13 @@
         <v>5</v>
       </c>
       <c r="W27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1944,7 +1992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1973,7 +2021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2004,7 +2052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2044,13 +2092,13 @@
         <v>35</v>
       </c>
       <c r="W31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X31">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2150,7 +2198,10 @@
         <v>65</v>
       </c>
       <c r="V33" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="Y33">
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2178,16 +2229,16 @@
         <v>5</v>
       </c>
       <c r="V34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="W34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="X34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Y34" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:25" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B13054-A9D0-40A4-9D5F-99ADA1B61033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D9501F-8A80-448C-A6C2-3D971B1D8D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,10 +652,10 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
+      <selection pane="bottomRight" activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1504,6 +1504,9 @@
       <c r="V17" t="s">
         <v>48</v>
       </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1614,6 +1617,9 @@
       </c>
       <c r="V19" t="s">
         <v>48</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,6 +1709,9 @@
       <c r="U21">
         <f t="shared" si="0"/>
         <v>15</v>
+      </c>
+      <c r="W21">
+        <v>8</v>
       </c>
       <c r="X21" t="s">
         <v>54</v>
@@ -1912,6 +1921,9 @@
       </c>
       <c r="V26" t="s">
         <v>48</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D9501F-8A80-448C-A6C2-3D971B1D8D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BC26AB-4848-437D-A68D-5331BAA65B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,10 +652,10 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y19" sqref="Y19"/>
+      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -907,6 +907,9 @@
       <c r="V5" t="s">
         <v>48</v>
       </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -963,6 +966,9 @@
       </c>
       <c r="W6" s="12" t="s">
         <v>50</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -993,6 +999,9 @@
       <c r="X7" t="s">
         <v>52</v>
       </c>
+      <c r="Y7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1031,6 +1040,9 @@
       <c r="X8" t="s">
         <v>53</v>
       </c>
+      <c r="Y8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1089,6 +1101,9 @@
       <c r="V9" t="s">
         <v>48</v>
       </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1244,6 +1259,9 @@
       </c>
       <c r="X12">
         <v>11</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1347,6 +1365,9 @@
       </c>
       <c r="X14">
         <v>22</v>
+      </c>
+      <c r="Y14">
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1397,6 +1418,9 @@
       <c r="X15">
         <v>7</v>
       </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1446,6 +1470,9 @@
       <c r="X16">
         <v>3</v>
       </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1563,6 +1590,9 @@
       </c>
       <c r="W18" s="12" t="s">
         <v>50</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1716,6 +1746,9 @@
       <c r="X21" t="s">
         <v>54</v>
       </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1747,7 +1780,7 @@
         <v>5</v>
       </c>
       <c r="Q22" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R22" s="16">
         <v>5</v>
@@ -1757,13 +1790,16 @@
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W22" t="s">
         <v>51</v>
       </c>
       <c r="X22">
         <v>6</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1794,6 +1830,9 @@
       <c r="X23">
         <v>1</v>
       </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1842,6 +1881,9 @@
       </c>
       <c r="X24">
         <v>18</v>
+      </c>
+      <c r="Y24">
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1872,6 +1914,9 @@
       <c r="X25">
         <v>21</v>
       </c>
+      <c r="Y25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1959,6 +2004,9 @@
       <c r="X27">
         <v>26</v>
       </c>
+      <c r="Y27">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2002,6 +2050,9 @@
       </c>
       <c r="X28">
         <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2032,6 +2083,9 @@
       <c r="X29">
         <v>16</v>
       </c>
+      <c r="Y29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2063,6 +2117,9 @@
       <c r="X30">
         <v>24</v>
       </c>
+      <c r="Y30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -2109,6 +2166,9 @@
       <c r="X31">
         <v>23</v>
       </c>
+      <c r="Y31">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -2155,6 +2215,9 @@
       </c>
       <c r="X32">
         <v>9</v>
+      </c>
+      <c r="Y32">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-121/2ИСИП-121_Сети.xlsx
+++ b/2ИСИП-121/2ИСИП-121_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-121\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BC26AB-4848-437D-A68D-5331BAA65B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012EAF24-7B87-471F-8C80-9F6EE4628D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -652,10 +652,10 @@
   <dimension ref="A1:Y35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
+      <selection pane="bottomRight" activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2320,6 +2320,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="U4:U34">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
